--- a/biology/Médecine/Ibn_Hindû/Ibn_Hindû.xlsx
+++ b/biology/Médecine/Ibn_Hindû/Ibn_Hindû.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ibn_Hind%C3%BB</t>
+          <t>Ibn_Hindû</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Abû al-Faraj 'Alî ibn al-Ḥusayn ibn Hindû est un secrétaire de chancellerie, homme de lettres et médecin iranien d'expression arabe, né à Ray vers le milieu du Xe siècle, mort à Gorgan probablement en 1019 (an 410 de l'Hégire)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abû al-Faraj 'Alî ibn al-Ḥusayn ibn Hindû est un secrétaire de chancellerie, homme de lettres et médecin iranien d'expression arabe, né à Ray vers le milieu du Xe siècle, mort à Gorgan probablement en 1019 (an 410 de l'Hégire).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ibn_Hind%C3%BB</t>
+          <t>Ibn_Hindû</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Carrière et œuvre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fut élève d'Abû al-Hasan al-'Amirî en philosophie, d'Ibn al-Khammar en médecine. Il fut pendant une grande partie de sa vie secrétaire de chancellerie, notamment à Ray, auprès d'émirs de la dynastie des Bouyides (Adhud ad-Dawla Fanna Khusraw, la régente Sayyida, épouse de Fakhr ad-Dawla Ali) et de leurs vizirs (par exemple Ṣâḥib b. 'Abbâd[2]). Il se serait rendu à la fin de sa vie à la cour des Ziyarides à Gorgan (à l'époque celle de l'émir Manuchihr) et y serait mort.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut élève d'Abû al-Hasan al-'Amirî en philosophie, d'Ibn al-Khammar en médecine. Il fut pendant une grande partie de sa vie secrétaire de chancellerie, notamment à Ray, auprès d'émirs de la dynastie des Bouyides (Adhud ad-Dawla Fanna Khusraw, la régente Sayyida, épouse de Fakhr ad-Dawla Ali) et de leurs vizirs (par exemple Ṣâḥib b. 'Abbâd). Il se serait rendu à la fin de sa vie à la cour des Ziyarides à Gorgan (à l'époque celle de l'émir Manuchihr) et y serait mort.
 On lui connaît principalement trois ouvrages :
 une introduction à la philosophie intitulée Al-Risâla al-mushawwiqa fî al-madkhal ila al-falsafa (texte non édité) ;
 un recueil de dits des anciens philosophes grecs intitulé Al-Kalim al-rûḥâniyya fî al-ḥikam al-Yûnâniyya ;
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ibn_Hind%C3%BB</t>
+          <t>Ibn_Hindû</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>M. Mohaghegh et M. T. Daneshpajuh (éd.), Miftâḥ al-ṭibb wa-minhâj al-ṭullâb, McGill University, Montréal, et Institute of Islamic Studies, Téhéran, 1989.
 Floréal Sanagustin (trad.), Le livre des clefs pour la médecine ou la méthode à l'usage des étudiants (traduction française annotée), Paris, Geuthner, 2014.</t>
